--- a/medicine/Soins infirmiers et profession infirmière/Hôpital_São_Francisco/Hôpital_São_Francisco.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Hôpital_São_Francisco/Hôpital_São_Francisco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_S%C3%A3o_Francisco</t>
+          <t>Hôpital_São_Francisco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital São Francisco est une unité du complexe hospitalier de la Santa Casa de Misericórdia de Porto Alegre. C'est un centre de référence du Sud du Brésil dans les domaines de la cardiologie d'intervention et de la chirurgie coronaire, mais aussi dans celui de la pédiatrie
  Portail des soins infirmiers   Portail du Rio Grande do Sul                    </t>
